--- a/dist/document/dest/2020/10/doctors/175.xlsx
+++ b/dist/document/dest/2020/10/doctors/175.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>30</v>
       </c>
-      <c r="C2" s="1">
-        <v>2340000</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>30</v>
       </c>
-      <c r="C3" s="1">
-        <v>293700</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>3387</v>
       </c>
-      <c r="C4" s="1">
-        <v>24403335</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>140</v>
       </c>
-      <c r="C5" s="1">
-        <v>2387000</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>86</v>
       </c>
-      <c r="C6" s="1">
-        <v>1135200</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>56</v>
       </c>
-      <c r="C7" s="1">
-        <v>366520</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
-        <v>18600</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>43</v>
       </c>
-      <c r="C9" s="1">
-        <v>510840</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>30</v>
       </c>
-      <c r="C10" s="1">
-        <v>478500</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>300</v>
       </c>
-      <c r="C11" s="1">
-        <v>2970000</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>74</v>
       </c>
-      <c r="C12" s="1">
-        <v>1196580</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>366</v>
       </c>
-      <c r="C13" s="1">
-        <v>6441600</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>750</v>
       </c>
-      <c r="C14" s="1">
-        <v>14850000</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>56</v>
       </c>
-      <c r="C15" s="1">
-        <v>193200</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>122</v>
       </c>
-      <c r="C16" s="1">
-        <v>1878800</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>406</v>
       </c>
-      <c r="C17" s="1">
-        <v>1960980</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>60</v>
       </c>
-      <c r="C18" s="1">
-        <v>456600</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>830</v>
       </c>
-      <c r="C19" s="1">
-        <v>3436200</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>1</v>
       </c>
-      <c r="C20" s="1">
-        <v>6500</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>196</v>
       </c>
-      <c r="C21" s="1">
-        <v>2263800</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>321</v>
       </c>
-      <c r="C22" s="1">
-        <v>12005400</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>315</v>
       </c>
-      <c r="C23" s="1">
-        <v>5717250</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>30</v>
       </c>
-      <c r="C24" s="1">
-        <v>118950</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>84</v>
       </c>
-      <c r="C25" s="1">
-        <v>454020</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>844</v>
       </c>
-      <c r="C26" s="1">
-        <v>7292160</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>582</v>
       </c>
-      <c r="C27" s="1">
-        <v>8322600</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>70</v>
       </c>
-      <c r="C28" s="1">
-        <v>12579000</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>279</v>
       </c>
-      <c r="C29" s="1">
-        <v>866295</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>15</v>
       </c>
-      <c r="C30" s="1">
-        <v>235050</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>2133</v>
       </c>
-      <c r="C31" s="1">
-        <v>11038275</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>612</v>
       </c>
-      <c r="C32" s="1">
-        <v>2463300</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>56</v>
       </c>
-      <c r="C33" s="1">
-        <v>4620000</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>3</v>
       </c>
-      <c r="C34" s="1">
-        <v>435000</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>4</v>
       </c>
-      <c r="C35" s="1">
-        <v>60000</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>1308</v>
       </c>
-      <c r="C36" s="1">
-        <v>12747768</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>180</v>
       </c>
-      <c r="C37" s="1">
-        <v>2098800</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -801,7 +693,7 @@
         <v>13805</v>
       </c>
       <c r="C38" s="1">
-        <v>148641823</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/175.xlsx
+++ b/dist/document/dest/2020/10/doctors/175.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,18 +399,24 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Androgel Gel (Testosterone 50mg)</v>
+        <v>Bilclamos Bid 1000mg (Amoxicilin,Clavulanic)</v>
       </c>
       <c r="B2" s="1">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="C2" s="1">
+        <v>368000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Bonzacim (Rosuvastatin 10mg)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B3" s="1">
-        <v>30</v>
+        <v>213</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1534665</v>
       </c>
     </row>
     <row r="4">
@@ -418,287 +424,851 @@
         <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>3387</v>
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>144100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Cefactum (Cefdinir 300mg)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>140</v>
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>151305</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Celevox (Levofloxacin 500mg)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>86</v>
+        <v>30</v>
+      </c>
+      <c r="C6" s="1">
+        <v>216150</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Diosfort (Diosmin 600mg)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>56</v>
+        <v>1367</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9849235</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Efferalgan Sủi 500mg</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
+        <v>75</v>
+      </c>
+      <c r="C8" s="1">
+        <v>540375</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Esotrax (Esomeprazole 20mg)</v>
+        <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="C9" s="1">
+        <v>529100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Febuday (Febuxostat 40mg)</v>
+        <v>Cefactum (Cefdinir 300mg)</v>
       </c>
       <c r="B10" s="1">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>341000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Flexilor 4 (Lornoxicam 4mg)</v>
+        <v>Cefactum (Cefdinir 300mg)</v>
       </c>
       <c r="B11" s="1">
-        <v>300</v>
+        <v>20</v>
+      </c>
+      <c r="C11" s="1">
+        <v>341000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Harnal Ocas 0.4mg (Tamsulosin)</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B12" s="1">
-        <v>74</v>
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
+        <v>264000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>366</v>
+        <v>56</v>
+      </c>
+      <c r="C13" s="1">
+        <v>739200</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Imenir (Cefdinir 300mg)</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>750</v>
+        <v>60</v>
+      </c>
+      <c r="C14" s="1">
+        <v>392700</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Kogimin (Multivitamine &amp; Minerals)</v>
+        <v>Diosfort (Diosmin 600mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="C15" s="1">
+        <v>392700</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+        <v>Efferalgan Sủi 500mg</v>
       </c>
       <c r="B16" s="1">
-        <v>122</v>
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>31000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+        <v>Esotrax (Esomeprazole 20mg)</v>
       </c>
       <c r="B17" s="1">
-        <v>406</v>
+        <v>24</v>
+      </c>
+      <c r="C17" s="1">
+        <v>285120</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+        <v>Febuday (Febuxostat 40mg)</v>
       </c>
       <c r="B18" s="1">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="C18" s="1">
+        <v>478500</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Pharcotinex</v>
+        <v>Flexilor 4 (Lornoxicam 4mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>830</v>
+        <v>40</v>
+      </c>
+      <c r="C19" s="1">
+        <v>396000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Povidine 20ml</v>
+        <v>Flexilor 4 (Lornoxicam 4mg)</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="C20" s="1">
+        <v>475200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Prazogood (Esomeprazole 40mg)</v>
+        <v>Flexilor 4 (Lornoxicam 4mg)</v>
       </c>
       <c r="B21" s="1">
-        <v>196</v>
+        <v>152</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1504800</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Pricefil (Cefprozil 500mg)</v>
+        <v>Harnal Ocas 0.4mg (Tamsulosin)</v>
       </c>
       <c r="B22" s="1">
-        <v>321</v>
+        <v>10</v>
+      </c>
+      <c r="C22" s="1">
+        <v>161700</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Prorid (Finasteride 5 mg)</v>
+        <v>Harnal Ocas 0.4mg (Tamsulosin)</v>
       </c>
       <c r="B23" s="1">
-        <v>315</v>
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
+        <v>161700</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Safena (Atorvastatin 10mg)</v>
+        <v>Harnal Ocas 0.4mg (Tamsulosin)</v>
       </c>
       <c r="B24" s="1">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="C24" s="1">
+        <v>161700</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Seovigo (Ginkgo biloba 80mg)</v>
+        <v>Harnal Ocas 0.4mg (Tamsulosin)</v>
       </c>
       <c r="B25" s="1">
-        <v>84</v>
+        <v>36</v>
+      </c>
+      <c r="C25" s="1">
+        <v>582120</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>ShineTadeno (Cao Pygeum dfricanum 50mg)</v>
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
       </c>
       <c r="B26" s="1">
-        <v>844</v>
+        <v>20</v>
+      </c>
+      <c r="C26" s="1">
+        <v>352000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Sotig (Esomeprazole 40mg)</v>
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
       </c>
       <c r="B27" s="1">
-        <v>582</v>
+        <v>20</v>
+      </c>
+      <c r="C27" s="1">
+        <v>352000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Sotinin</v>
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
       </c>
       <c r="B28" s="1">
-        <v>70</v>
+        <v>26</v>
+      </c>
+      <c r="C28" s="1">
+        <v>457600</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Strecalis (Eperisone 50mg)</v>
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
       </c>
       <c r="B29" s="1">
-        <v>279</v>
+        <v>138</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2428800</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Tadalafil Stada (Tadalafil 10mg)</v>
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
       </c>
       <c r="B30" s="1">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
+        <v>176000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Talroma (Tiropramide 100mg)</v>
+        <v>Imenir (Cefdinir 300mg)</v>
       </c>
       <c r="B31" s="1">
-        <v>2133</v>
+        <v>28</v>
+      </c>
+      <c r="C31" s="1">
+        <v>554400</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Targinos (Arginine 400mg)</v>
+        <v>Imenir (Cefdinir 300mg)</v>
       </c>
       <c r="B32" s="1">
-        <v>612</v>
+        <v>20</v>
+      </c>
+      <c r="C32" s="1">
+        <v>396000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Troxipe kit (Clarithromycin, esomeprazole, tinidazol)</v>
+        <v>Imenir (Cefdinir 300mg)</v>
       </c>
       <c r="B33" s="1">
-        <v>56</v>
+        <v>166</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3286800</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Urgocrepe 10cm x 4,5m</v>
+        <v>Imenir (Cefdinir 300mg)</v>
       </c>
       <c r="B34" s="1">
-        <v>3</v>
+        <v>50</v>
+      </c>
+      <c r="C34" s="1">
+        <v>990000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Urine Bag (Túi đựng nước tiểu)</v>
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
       </c>
       <c r="B35" s="1">
-        <v>4</v>
+        <v>38</v>
+      </c>
+      <c r="C35" s="1">
+        <v>585200</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Vocfor (Lornoxicam 4mg)</v>
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
       </c>
       <c r="B36" s="1">
-        <v>1308</v>
+        <v>10</v>
+      </c>
+      <c r="C36" s="1">
+        <v>154000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
       </c>
       <c r="B37" s="1">
-        <v>180</v>
+        <v>126</v>
+      </c>
+      <c r="C37" s="1">
+        <v>608580</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B38" s="1">
+        <v>84</v>
+      </c>
+      <c r="C38" s="1">
+        <v>347760</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B39" s="1">
+        <v>336</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1391040</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Pricefil (Cefprozil 500mg)</v>
+      </c>
+      <c r="B40" s="1">
+        <v>42</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1570800</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Pricefil (Cefprozil 500mg)</v>
+      </c>
+      <c r="B41" s="1">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1">
+        <v>261800</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Pricefil (Cefprozil 500mg)</v>
+      </c>
+      <c r="B42" s="1">
+        <v>145</v>
+      </c>
+      <c r="C42" s="1">
+        <v>5423000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Pricefil (Cefprozil 500mg)</v>
+      </c>
+      <c r="B43" s="1">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1">
+        <v>374000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Prorid (Finasteride 5 mg)</v>
+      </c>
+      <c r="B44" s="1">
+        <v>315</v>
+      </c>
+      <c r="C44" s="1">
+        <v>5717250</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Prorid (Finasteride 5 mg)</v>
+      </c>
+      <c r="B45" s="1">
+        <v>20</v>
+      </c>
+      <c r="C45" s="1">
+        <v>363000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B46" s="1">
+        <v>90</v>
+      </c>
+      <c r="C46" s="1">
+        <v>486450</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
+      </c>
+      <c r="B47" s="1">
+        <v>90</v>
+      </c>
+      <c r="C47" s="1">
+        <v>486450</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>ShineTadeno (Cao Pygeum dfricanum 50mg)</v>
+      </c>
+      <c r="B48" s="1">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1">
+        <v>51840</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>ShineTadeno (Cao Pygeum dfricanum 50mg)</v>
+      </c>
+      <c r="B49" s="1">
+        <v>630</v>
+      </c>
+      <c r="C49" s="1">
+        <v>5443200</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>ShineTadeno (Cao Pygeum dfricanum 50mg)</v>
+      </c>
+      <c r="B50" s="1">
+        <v>60</v>
+      </c>
+      <c r="C50" s="1">
+        <v>518400</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>ShineTadeno (Cao Pygeum dfricanum 50mg)</v>
+      </c>
+      <c r="B51" s="1">
+        <v>50</v>
+      </c>
+      <c r="C51" s="1">
+        <v>432000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B52" s="1">
+        <v>10</v>
+      </c>
+      <c r="C52" s="1">
+        <v>143000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B53" s="1">
+        <v>23</v>
+      </c>
+      <c r="C53" s="1">
+        <v>328900</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B54" s="1">
+        <v>82</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1172600</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B55" s="1">
+        <v>10</v>
+      </c>
+      <c r="C55" s="1">
+        <v>143000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B56" s="1">
+        <v>288</v>
+      </c>
+      <c r="C56" s="1">
+        <v>4118400</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B57" s="1">
+        <v>25</v>
+      </c>
+      <c r="C57" s="1">
+        <v>357500</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B58" s="1">
+        <v>5</v>
+      </c>
+      <c r="C58" s="1">
+        <v>71500</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B59" s="1">
+        <v>15</v>
+      </c>
+      <c r="C59" s="1">
+        <v>214500</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Sotinin</v>
+      </c>
+      <c r="B60" s="1">
+        <v>15</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2695500</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Sotinin</v>
+      </c>
+      <c r="B61" s="1">
+        <v>44</v>
+      </c>
+      <c r="C61" s="1">
+        <v>7906800</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Sotinin</v>
+      </c>
+      <c r="B62" s="1">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1">
+        <v>539100</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Strecalis (Eperisone 50mg)</v>
+      </c>
+      <c r="B63" s="1">
+        <v>45</v>
+      </c>
+      <c r="C63" s="1">
+        <v>139725</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Talroma (Tiropramide 100mg)</v>
+      </c>
+      <c r="B64" s="1">
+        <v>129</v>
+      </c>
+      <c r="C64" s="1">
+        <v>667575</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Talroma (Tiropramide 100mg)</v>
+      </c>
+      <c r="B65" s="1">
+        <v>21</v>
+      </c>
+      <c r="C65" s="1">
+        <v>108675</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Talroma (Tiropramide 100mg)</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1047</v>
+      </c>
+      <c r="C66" s="1">
+        <v>5418225</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B67" s="1">
+        <v>90</v>
+      </c>
+      <c r="C67" s="1">
+        <v>362250</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B68" s="1">
+        <v>312</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1255800</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B69" s="1">
+        <v>20</v>
+      </c>
+      <c r="C69" s="1">
+        <v>194920</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B70" s="1">
+        <v>84</v>
+      </c>
+      <c r="C70" s="1">
+        <v>818664</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B71" s="1">
+        <v>10</v>
+      </c>
+      <c r="C71" s="1">
+        <v>97460</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B72" s="1">
+        <v>30</v>
+      </c>
+      <c r="C72" s="1">
+        <v>292380</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B73" s="1">
+        <v>410</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3995860</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B74" s="1">
+        <v>30</v>
+      </c>
+      <c r="C74" s="1">
+        <v>292380</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B75" s="1">
+        <v>20</v>
+      </c>
+      <c r="C75" s="1">
+        <v>194920</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B76" s="1">
+        <v>10</v>
+      </c>
+      <c r="C76" s="1">
+        <v>97460</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B77" s="1">
+        <v>46</v>
+      </c>
+      <c r="C77" s="1">
+        <v>448316</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B78" s="1">
+        <v>60</v>
+      </c>
+      <c r="C78" s="1">
+        <v>699600</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B79" s="1">
+        <v>60</v>
+      </c>
+      <c r="C79" s="1">
+        <v>699600</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B38" s="1">
-        <v>13805</v>
-      </c>
-      <c r="C38" s="1">
-        <v>NaN</v>
+      <c r="B80" s="1">
+        <v>7870</v>
+      </c>
+      <c r="C80" s="1">
+        <v>86724350</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C38"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C80"/>
   </ignoredErrors>
 </worksheet>
 </file>